--- a/Annotation__Semantique_Cadastre.xlsx
+++ b/Annotation__Semantique_Cadastre.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\ONTOLOGY\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5631B27F-E59B-4D7B-AE7A-2A4A6BEA3DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Annotation des tableaux" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>Commune</t>
   </si>
@@ -82,9 +89,6 @@
     <t>TA:Commune de la matrice de rôle</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
     <r>
       <rPr>
         <i/>
@@ -109,9 +113,6 @@
   </si>
   <si>
     <r>
-      <t/>
-    </r>
-    <r>
       <rPr>
         <i/>
         <sz val="11"/>
@@ -134,9 +135,6 @@
     </r>
   </si>
   <si>
-    <t>Matrice des propriétés bâties (1822-1882) puis Matrice des propriétés non bâties (1882-1914)</t>
-  </si>
-  <si>
     <t>TA:Numéro de la page</t>
   </si>
   <si>
@@ -152,9 +150,6 @@
     <t>Matrice des propriétés bâties (1911-rénovation)</t>
   </si>
   <si>
-    <t>Risque d'avoire plusieurs numéros sur une même page</t>
-  </si>
-  <si>
     <t>Soit un compte foncier soit un état</t>
   </si>
   <si>
@@ -168,14 +163,28 @@
   </si>
   <si>
     <t>Column-Type Annotation</t>
+  </si>
+  <si>
+    <t>Risque d'avoir plusieurs numéros sur une même page</t>
+  </si>
+  <si>
+    <t>métadonnées des fichiers</t>
+  </si>
+  <si>
+    <t>globalement les champs du formulaire d'annotation pour DAN</t>
+  </si>
+  <si>
+    <t>entitées segmentées et transcrites par DAN, post-traitées dans certains cas</t>
+  </si>
+  <si>
+    <t>Matrice des propriétés foncières (1822-1882) puis Matrice des propriétés non bâties (1882-1914)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +202,7 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF70ad47"/>
+      <color rgb="FF70AD47"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -206,7 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFd0cece"/>
+      <color rgb="FFD0CECE"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -219,9 +228,32 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FFed7d31"/>
+      <color rgb="FFED7D31"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -233,21 +265,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdae3f3"/>
+        <fgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd9d9d9"/>
+        <fgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFa9d18e"/>
+        <fgColor rgb="FFA9D18E"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -264,103 +296,126 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -371,10 +426,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -412,71 +467,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,7 +559,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -527,11 +582,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -540,13 +595,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -556,7 +611,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -565,7 +620,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -574,7 +629,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -582,10 +637,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -650,33 +705,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="21" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="22" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="22" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="34.1796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7265625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -718,7 +774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="48">
+    <row r="2" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -743,7 +799,9 @@
       <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="6" t="s">
         <v>17</v>
@@ -756,7 +814,7 @@
       </c>
       <c r="N2" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="48">
+    <row r="3" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -781,7 +839,9 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
@@ -796,9 +856,9 @@
       </c>
       <c r="N3" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="48">
+    <row r="4" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>21</v>
@@ -816,12 +876,14 @@
         <v>16</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
@@ -836,9 +898,9 @@
       </c>
       <c r="N4" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="48">
+    <row r="5" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>21</v>
@@ -856,12 +918,14 @@
         <v>16</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
       </c>
@@ -876,9 +940,9 @@
       </c>
       <c r="N5" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="48">
+    <row r="6" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -896,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
@@ -915,12 +979,12 @@
         <v>23</v>
       </c>
       <c r="N6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="48">
-      <c r="A7" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>21</v>
@@ -938,7 +1002,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>16</v>
@@ -957,10 +1021,10 @@
         <v>23</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="62.25" customFormat="1" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -968,21 +1032,21 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -998,9 +1062,9 @@
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="18"/>
@@ -1016,12 +1080,14 @@
       <c r="M10" s="15"/>
       <c r="N10" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -1034,12 +1100,14 @@
       <c r="M11" s="15"/>
       <c r="N11" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="27"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -1052,12 +1120,14 @@
       <c r="M12" s="15"/>
       <c r="N12" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="25"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -1071,6 +1141,28 @@
       <c r="N13" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E2C33A-77CD-4FEE-9E2B-CFABFE7274ED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>